--- a/PocketNurseTest/SampleRequest3.xlsx
+++ b/PocketNurseTest/SampleRequest3.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlkerchner\Documents\Omnicell\Spread Sheet\MS1 MS2 Combined Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccaannburton/Projects/PocketNurse/PocketNurseTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7AE323C3-787C-6F4F-8405-65EF70D29EEC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6450"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Patient Information" sheetId="1" r:id="rId1"/>
-    <sheet name="Med Order Information" sheetId="2" r:id="rId2"/>
-    <sheet name="Items not in PN formulary" sheetId="3" r:id="rId3"/>
+    <sheet name="Session" sheetId="4" r:id="rId1"/>
+    <sheet name="Patient Information" sheetId="1" r:id="rId2"/>
+    <sheet name="Med Order Information" sheetId="2" r:id="rId3"/>
+    <sheet name="Items not in PN formulary" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="573">
   <si>
     <t>Patient First Name</t>
   </si>
@@ -1722,13 +1724,34 @@
   </si>
   <si>
     <t>units/kg</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Madison</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1739,46 +1762,55 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1825,6 +1857,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1897,7 +1935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2012,6 +2050,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2291,26 +2332,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEA3AFD-EE92-C143-ABEC-7BFEE9CA071A}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="68" t="s">
+        <v>567</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>569</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="69">
+        <v>1</v>
+      </c>
+      <c r="B2" s="70">
+        <v>43221.458333333336</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>571</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
-    <col min="7" max="16" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="16" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" customHeight="1">
+    <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2340,7 +2433,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="14.25" customHeight="1">
+    <row r="2" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -2368,7 +2461,7 @@
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16" ht="14.25" customHeight="1">
+    <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>62</v>
       </c>
@@ -2386,7 +2479,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.25" customHeight="1">
+    <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
@@ -2404,7 +2497,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.25" customHeight="1">
+    <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>69</v>
       </c>
@@ -2422,7 +2515,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.25" customHeight="1">
+    <row r="6" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>72</v>
       </c>
@@ -2440,7 +2533,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14.25" customHeight="1">
+    <row r="7" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>100</v>
       </c>
@@ -2458,7 +2551,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.25" customHeight="1">
+    <row r="8" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -2475,7 +2568,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.25" customHeight="1">
+    <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>119</v>
       </c>
@@ -2493,7 +2586,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.25" customHeight="1">
+    <row r="10" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>121</v>
       </c>
@@ -2511,7 +2604,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.25" customHeight="1">
+    <row r="11" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>123</v>
       </c>
@@ -2528,7 +2621,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="14.25" customHeight="1">
+    <row r="12" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>126</v>
       </c>
@@ -2545,7 +2638,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.25" customHeight="1">
+    <row r="13" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>128</v>
       </c>
@@ -2562,7 +2655,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14.25" customHeight="1">
+    <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>130</v>
       </c>
@@ -2579,7 +2672,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14.25" customHeight="1">
+    <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>133</v>
       </c>
@@ -2596,7 +2689,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>135</v>
       </c>
@@ -2613,13 +2706,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1">
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>141</v>
       </c>
@@ -2637,7 +2730,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1">
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>143</v>
       </c>
@@ -2654,7 +2747,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1">
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>146</v>
       </c>
@@ -2671,7 +2764,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1">
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>150</v>
       </c>
@@ -2688,7 +2781,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1">
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>127</v>
       </c>
@@ -2705,7 +2798,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1">
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>158</v>
       </c>
@@ -2722,7 +2815,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1">
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>164</v>
       </c>
@@ -2739,7 +2832,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1">
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>166</v>
       </c>
@@ -2756,7 +2849,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1">
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>168</v>
       </c>
@@ -2773,7 +2866,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1">
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>171</v>
       </c>
@@ -2790,15 +2883,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2809,23 +2902,22 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.54296875" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" customWidth="1"/>
-    <col min="12" max="26" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2862,7 +2954,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -2902,7 +2994,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>59</v>
       </c>
@@ -2942,7 +3034,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>111</v>
       </c>
@@ -2984,7 +3076,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>118</v>
       </c>
@@ -3013,7 +3105,7 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>148</v>
       </c>
@@ -3046,7 +3138,7 @@
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>160</v>
       </c>
@@ -3075,7 +3167,7 @@
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>174</v>
       </c>
@@ -3104,7 +3196,7 @@
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>178</v>
       </c>
@@ -3139,7 +3231,7 @@
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>193</v>
       </c>
@@ -3168,7 +3260,7 @@
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>197</v>
       </c>
@@ -3197,7 +3289,7 @@
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>203</v>
       </c>
@@ -3234,7 +3326,7 @@
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>225</v>
       </c>
@@ -3272,7 +3364,7 @@
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>227</v>
       </c>
@@ -3312,7 +3404,7 @@
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>235</v>
       </c>
@@ -3341,7 +3433,7 @@
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>241</v>
       </c>
@@ -3374,7 +3466,7 @@
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
     </row>
-    <row r="17" spans="1:26" ht="14.25" customHeight="1">
+    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>246</v>
       </c>
@@ -3403,7 +3495,7 @@
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
     </row>
-    <row r="18" spans="1:26" ht="14.25" customHeight="1">
+    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>250</v>
       </c>
@@ -3434,7 +3526,7 @@
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
     </row>
-    <row r="19" spans="1:26" ht="14.25" customHeight="1">
+    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
         <v>254</v>
       </c>
@@ -3463,7 +3555,7 @@
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
     </row>
-    <row r="20" spans="1:26" ht="14.25" customHeight="1">
+    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
         <v>257</v>
       </c>
@@ -3492,7 +3584,7 @@
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>261</v>
       </c>
@@ -3521,7 +3613,7 @@
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
     </row>
-    <row r="22" spans="1:26" ht="14.25" customHeight="1">
+    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>261</v>
       </c>
@@ -3550,7 +3642,7 @@
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
     </row>
-    <row r="23" spans="1:26" ht="14.25" customHeight="1">
+    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>268</v>
       </c>
@@ -3579,7 +3671,7 @@
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
     </row>
-    <row r="24" spans="1:26" ht="14.25" customHeight="1">
+    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
         <v>268</v>
       </c>
@@ -3608,7 +3700,7 @@
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
     </row>
-    <row r="25" spans="1:26" ht="14.25" customHeight="1">
+    <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>282</v>
       </c>
@@ -3653,7 +3745,7 @@
       </c>
       <c r="O25" s="13"/>
     </row>
-    <row r="26" spans="1:26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>289</v>
       </c>
@@ -3682,7 +3774,7 @@
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
     </row>
-    <row r="27" spans="1:26" ht="14.25" customHeight="1">
+    <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>295</v>
       </c>
@@ -3724,7 +3816,7 @@
       <c r="Y27" s="11"/>
       <c r="Z27" s="11"/>
     </row>
-    <row r="28" spans="1:26" ht="14.25" customHeight="1">
+    <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>305</v>
       </c>
@@ -3757,7 +3849,7 @@
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
     </row>
-    <row r="29" spans="1:26" ht="14.25" customHeight="1">
+    <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>315</v>
       </c>
@@ -3786,7 +3878,7 @@
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
     </row>
-    <row r="30" spans="1:26" ht="14.25" customHeight="1">
+    <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>320</v>
       </c>
@@ -3813,7 +3905,7 @@
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
     </row>
-    <row r="31" spans="1:26" ht="14.25" customHeight="1">
+    <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
         <v>324</v>
       </c>
@@ -3842,7 +3934,7 @@
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
     </row>
-    <row r="32" spans="1:26" ht="14.25" customHeight="1">
+    <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>328</v>
       </c>
@@ -3871,7 +3963,7 @@
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
     </row>
-    <row r="33" spans="1:26" ht="14.25" customHeight="1">
+    <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>331</v>
       </c>
@@ -3902,7 +3994,7 @@
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
     </row>
-    <row r="34" spans="1:26" ht="14.25" customHeight="1">
+    <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>335</v>
       </c>
@@ -3933,7 +4025,7 @@
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
     </row>
-    <row r="35" spans="1:26" ht="14.25" customHeight="1">
+    <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>338</v>
       </c>
@@ -3964,7 +4056,7 @@
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
     </row>
-    <row r="36" spans="1:26" ht="14.25" customHeight="1">
+    <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>342</v>
       </c>
@@ -3995,7 +4087,7 @@
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
     </row>
-    <row r="37" spans="1:26" ht="14.25" customHeight="1">
+    <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="8"/>
       <c r="C37" s="12"/>
@@ -4023,7 +4115,7 @@
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
     </row>
-    <row r="38" spans="1:26" ht="14.25" customHeight="1">
+    <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>348</v>
       </c>
@@ -4067,7 +4159,7 @@
       <c r="Y38" s="11"/>
       <c r="Z38" s="11"/>
     </row>
-    <row r="39" spans="1:26" ht="14.25" customHeight="1">
+    <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>361</v>
       </c>
@@ -4104,7 +4196,7 @@
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
     </row>
-    <row r="40" spans="1:26" ht="14.25" customHeight="1">
+    <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>367</v>
       </c>
@@ -4144,7 +4236,7 @@
       <c r="Y40" s="11"/>
       <c r="Z40" s="11"/>
     </row>
-    <row r="41" spans="1:26" ht="14.25" customHeight="1">
+    <row r="41" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>370</v>
       </c>
@@ -4173,7 +4265,7 @@
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
     </row>
-    <row r="42" spans="1:26" ht="14.25" customHeight="1">
+    <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
         <v>375</v>
       </c>
@@ -4202,7 +4294,7 @@
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
     </row>
-    <row r="43" spans="1:26" ht="14.25" customHeight="1">
+    <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
         <v>379</v>
       </c>
@@ -4234,7 +4326,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="14.25" customHeight="1">
+    <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>383</v>
       </c>
@@ -4269,7 +4361,7 @@
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
     </row>
-    <row r="45" spans="1:26" ht="14.25" customHeight="1">
+    <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>386</v>
       </c>
@@ -4300,7 +4392,7 @@
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
     </row>
-    <row r="46" spans="1:26" ht="14.25" customHeight="1">
+    <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>388</v>
       </c>
@@ -4329,7 +4421,7 @@
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
     </row>
-    <row r="47" spans="1:26" ht="14.25" customHeight="1">
+    <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>392</v>
       </c>
@@ -4364,7 +4456,7 @@
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
     </row>
-    <row r="48" spans="1:26" ht="14.25" customHeight="1">
+    <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>397</v>
       </c>
@@ -4395,7 +4487,7 @@
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
     </row>
-    <row r="49" spans="1:26" ht="14.25" customHeight="1">
+    <row r="49" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
         <v>402</v>
       </c>
@@ -4435,7 +4527,7 @@
       <c r="Y49" s="11"/>
       <c r="Z49" s="11"/>
     </row>
-    <row r="50" spans="1:26" ht="14.25" customHeight="1">
+    <row r="50" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
         <v>407</v>
       </c>
@@ -4466,7 +4558,7 @@
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
     </row>
-    <row r="51" spans="1:26" ht="14.25" customHeight="1">
+    <row r="51" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
         <v>412</v>
       </c>
@@ -4497,7 +4589,7 @@
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
     </row>
-    <row r="52" spans="1:26" ht="14.25" customHeight="1">
+    <row r="52" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>416</v>
       </c>
@@ -4528,7 +4620,7 @@
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
     </row>
-    <row r="53" spans="1:26" ht="14.25" customHeight="1">
+    <row r="53" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
         <v>423</v>
       </c>
@@ -4565,7 +4657,7 @@
       <c r="N53" s="13"/>
       <c r="O53" s="13"/>
     </row>
-    <row r="54" spans="1:26" ht="14.25" customHeight="1">
+    <row r="54" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="25" t="s">
         <v>432</v>
       </c>
@@ -4596,7 +4688,7 @@
       <c r="N54" s="13"/>
       <c r="O54" s="13"/>
     </row>
-    <row r="55" spans="1:26" ht="14.25" customHeight="1">
+    <row r="55" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>439</v>
       </c>
@@ -4638,7 +4730,7 @@
       <c r="Y55" s="11"/>
       <c r="Z55" s="11"/>
     </row>
-    <row r="56" spans="1:26" ht="14.25" customHeight="1">
+    <row r="56" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="25" t="s">
         <v>446</v>
       </c>
@@ -4667,7 +4759,7 @@
       <c r="N56" s="13"/>
       <c r="O56" s="13"/>
     </row>
-    <row r="57" spans="1:26" ht="14.25" customHeight="1">
+    <row r="57" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="25" t="s">
         <v>449</v>
       </c>
@@ -4698,7 +4790,7 @@
       <c r="N57" s="13"/>
       <c r="O57" s="13"/>
     </row>
-    <row r="58" spans="1:26" ht="14.25" customHeight="1">
+    <row r="58" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>459</v>
       </c>
@@ -4727,7 +4819,7 @@
       <c r="N58" s="13"/>
       <c r="O58" s="13"/>
     </row>
-    <row r="59" spans="1:26" ht="14.25" customHeight="1">
+    <row r="59" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>465</v>
       </c>
@@ -4792,7 +4884,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="14.25" customHeight="1">
+    <row r="60" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>483</v>
       </c>
@@ -4831,7 +4923,7 @@
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
     </row>
-    <row r="61" spans="1:26" ht="14.25" customHeight="1">
+    <row r="61" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="25" t="s">
         <v>485</v>
       </c>
@@ -4862,7 +4954,7 @@
       <c r="N61" s="13"/>
       <c r="O61" s="13"/>
     </row>
-    <row r="62" spans="1:26" ht="14.25" customHeight="1">
+    <row r="62" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>489</v>
       </c>
@@ -4905,7 +4997,7 @@
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
     </row>
-    <row r="63" spans="1:26" ht="14.25" customHeight="1">
+    <row r="63" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="25" t="s">
         <v>489</v>
       </c>
@@ -4940,7 +5032,7 @@
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
     </row>
-    <row r="64" spans="1:26" ht="14.25" customHeight="1">
+    <row r="64" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>499</v>
       </c>
@@ -4980,7 +5072,7 @@
       <c r="Y64" s="11"/>
       <c r="Z64" s="11"/>
     </row>
-    <row r="65" spans="1:26" ht="14.25" customHeight="1">
+    <row r="65" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>504</v>
       </c>
@@ -5009,7 +5101,7 @@
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
     </row>
-    <row r="66" spans="1:26" ht="14.25" customHeight="1">
+    <row r="66" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
         <v>509</v>
       </c>
@@ -5038,7 +5130,7 @@
       <c r="N66" s="13"/>
       <c r="O66" s="13"/>
     </row>
-    <row r="67" spans="1:26" ht="14.25" customHeight="1">
+    <row r="67" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>513</v>
       </c>
@@ -5069,7 +5161,7 @@
       <c r="N67" s="13"/>
       <c r="O67" s="13"/>
     </row>
-    <row r="68" spans="1:26" ht="14.25" customHeight="1">
+    <row r="68" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>517</v>
       </c>
@@ -5109,7 +5201,7 @@
       <c r="Y68" s="11"/>
       <c r="Z68" s="11"/>
     </row>
-    <row r="69" spans="1:26" ht="14.25" customHeight="1">
+    <row r="69" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>522</v>
       </c>
@@ -5142,7 +5234,7 @@
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
     </row>
-    <row r="70" spans="1:26" ht="14.25" customHeight="1">
+    <row r="70" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>526</v>
       </c>
@@ -5171,7 +5263,7 @@
       <c r="N70" s="13"/>
       <c r="O70" s="13"/>
     </row>
-    <row r="71" spans="1:26" ht="14.25" customHeight="1">
+    <row r="71" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="27" t="s">
         <v>529</v>
       </c>
@@ -5186,7 +5278,7 @@
       </c>
       <c r="G71" s="11"/>
     </row>
-    <row r="72" spans="1:26" ht="14.25" customHeight="1">
+    <row r="72" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="C72" s="64"/>
       <c r="F72" s="11"/>
@@ -5198,8 +5290,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5210,26 +5302,25 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.54296875" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="4" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="30.453125" customWidth="1"/>
-    <col min="7" max="7" width="24.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" customWidth="1"/>
-    <col min="15" max="15" width="12.08984375" customWidth="1"/>
-    <col min="16" max="25" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" customWidth="1"/>
+    <col min="16" max="25" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.25" customHeight="1">
+    <row r="1" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -5276,7 +5367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="14.25" customHeight="1">
+    <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -5306,7 +5397,7 @@
       </c>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:25" ht="14.25" customHeight="1">
+    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>28</v>
       </c>
@@ -5341,7 +5432,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.25" customHeight="1">
+    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>28</v>
       </c>
@@ -5370,7 +5461,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.25" customHeight="1">
+    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>50</v>
       </c>
@@ -5394,7 +5485,7 @@
       </c>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:25" ht="14.25" customHeight="1">
+    <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>54</v>
       </c>
@@ -5423,7 +5514,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.25" customHeight="1">
+    <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>79</v>
       </c>
@@ -5464,7 +5555,7 @@
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
     </row>
-    <row r="8" spans="1:25" ht="14.25" customHeight="1">
+    <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>83</v>
       </c>
@@ -5486,7 +5577,7 @@
       </c>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:25" ht="14.25" customHeight="1">
+    <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>87</v>
       </c>
@@ -5511,7 +5602,7 @@
       </c>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:25" ht="14.25" customHeight="1">
+    <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>90</v>
       </c>
@@ -5533,7 +5624,7 @@
       </c>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:25" ht="14.25" customHeight="1">
+    <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>92</v>
       </c>
@@ -5568,7 +5659,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="14.25" customHeight="1">
+    <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>92</v>
       </c>
@@ -5595,7 +5686,7 @@
       </c>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:25" ht="14.25" customHeight="1">
+    <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>99</v>
       </c>
@@ -5613,7 +5704,7 @@
       </c>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:25" ht="14.25" customHeight="1">
+    <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>106</v>
       </c>
@@ -5641,7 +5732,7 @@
       </c>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" spans="1:25" ht="14.25" customHeight="1">
+    <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>179</v>
       </c>
@@ -5665,7 +5756,7 @@
       </c>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:25" ht="14.25" customHeight="1">
+    <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>179</v>
       </c>
@@ -5687,7 +5778,7 @@
       </c>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1">
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>184</v>
       </c>
@@ -5716,7 +5807,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="14.25" customHeight="1">
+    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>188</v>
       </c>
@@ -5741,7 +5832,7 @@
       </c>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:12" ht="14.25" customHeight="1">
+    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>188</v>
       </c>
@@ -5766,7 +5857,7 @@
       </c>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:12" ht="14.25" customHeight="1">
+    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>199</v>
       </c>
@@ -5788,7 +5879,7 @@
       </c>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:12" ht="14.25" customHeight="1">
+    <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
         <v>202</v>
       </c>
@@ -5821,7 +5912,7 @@
       </c>
       <c r="L21" s="11"/>
     </row>
-    <row r="22" spans="1:12" ht="14.25" customHeight="1">
+    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
         <v>208</v>
       </c>
@@ -5845,7 +5936,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
     </row>
-    <row r="23" spans="1:12" ht="14.25" customHeight="1">
+    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
         <v>209</v>
       </c>
@@ -5870,7 +5961,7 @@
       </c>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:12" ht="14.25" customHeight="1">
+    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>211</v>
       </c>
@@ -5897,7 +5988,7 @@
       </c>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="1:12" ht="14.25" customHeight="1">
+    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>217</v>
       </c>
@@ -5924,7 +6015,7 @@
       </c>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:12" ht="14.25" customHeight="1">
+    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>217</v>
       </c>
@@ -5951,7 +6042,7 @@
       </c>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:12" ht="14.25" customHeight="1">
+    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34" t="s">
         <v>224</v>
       </c>
@@ -5973,7 +6064,7 @@
       </c>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:12" ht="14.25" customHeight="1">
+    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="34" t="s">
         <v>232</v>
       </c>
@@ -5994,7 +6085,7 @@
       </c>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="1:12" ht="14.25" customHeight="1">
+    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>237</v>
       </c>
@@ -6021,7 +6112,7 @@
       </c>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:12" ht="14.25" customHeight="1">
+    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
         <v>240</v>
       </c>
@@ -6045,7 +6136,7 @@
       </c>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:12" ht="14.25" customHeight="1">
+    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>240</v>
       </c>
@@ -6069,7 +6160,7 @@
       </c>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="1:12" ht="14.25" customHeight="1">
+    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>264</v>
       </c>
@@ -6090,7 +6181,7 @@
       </c>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="1:12" ht="14.25" customHeight="1">
+    <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>273</v>
       </c>
@@ -6108,7 +6199,7 @@
       </c>
       <c r="J33" s="11"/>
     </row>
-    <row r="34" spans="1:12" ht="14.25" customHeight="1">
+    <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>276</v>
       </c>
@@ -6141,7 +6232,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="14.25" customHeight="1">
+    <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>276</v>
       </c>
@@ -6171,7 +6262,7 @@
       </c>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="1:12" ht="14.25" customHeight="1">
+    <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>286</v>
       </c>
@@ -6192,7 +6283,7 @@
       </c>
       <c r="J36" s="11"/>
     </row>
-    <row r="37" spans="1:12" ht="14.25" customHeight="1">
+    <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>291</v>
       </c>
@@ -6214,7 +6305,7 @@
       </c>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:12" ht="14.25" customHeight="1">
+    <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>297</v>
       </c>
@@ -6236,7 +6327,7 @@
       </c>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="1:12" ht="14.25" customHeight="1">
+    <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>304</v>
       </c>
@@ -6257,7 +6348,7 @@
       </c>
       <c r="J39" s="11"/>
     </row>
-    <row r="40" spans="1:12" ht="14.25" customHeight="1">
+    <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>307</v>
       </c>
@@ -6276,7 +6367,7 @@
       </c>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="1:12" ht="14.25" customHeight="1">
+    <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>310</v>
       </c>
@@ -6304,7 +6395,7 @@
       </c>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" spans="1:12" ht="14.25" customHeight="1">
+    <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>345</v>
       </c>
@@ -6326,7 +6417,7 @@
       </c>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:12" ht="14.25" customHeight="1">
+    <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>345</v>
       </c>
@@ -6348,7 +6439,7 @@
       </c>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:12" ht="14.25" customHeight="1">
+    <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>351</v>
       </c>
@@ -6370,7 +6461,7 @@
       </c>
       <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="1:12" ht="14.25" customHeight="1">
+    <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>353</v>
       </c>
@@ -6395,7 +6486,7 @@
       </c>
       <c r="J45" s="11"/>
     </row>
-    <row r="46" spans="1:12" ht="14.25" customHeight="1">
+    <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>353</v>
       </c>
@@ -6419,7 +6510,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="14.25" customHeight="1">
+    <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>359</v>
       </c>
@@ -6441,7 +6532,7 @@
       </c>
       <c r="J47" s="11"/>
     </row>
-    <row r="48" spans="1:12" ht="14.25" customHeight="1">
+    <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="31" t="s">
         <v>360</v>
       </c>
@@ -6465,7 +6556,7 @@
       </c>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="1:25" ht="14.25" customHeight="1">
+    <row r="49" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="46" t="s">
         <v>366</v>
       </c>
@@ -6506,7 +6597,7 @@
       <c r="X49" s="11"/>
       <c r="Y49" s="11"/>
     </row>
-    <row r="50" spans="1:25" ht="14.25" customHeight="1">
+    <row r="50" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>410</v>
       </c>
@@ -6533,7 +6624,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="14.25" customHeight="1">
+    <row r="51" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>421</v>
       </c>
@@ -6558,7 +6649,7 @@
       </c>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" spans="1:25" ht="14.25" customHeight="1">
+    <row r="52" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>427</v>
       </c>
@@ -6580,7 +6671,7 @@
       </c>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="1:25" ht="14.25" customHeight="1">
+    <row r="53" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>430</v>
       </c>
@@ -6602,7 +6693,7 @@
       </c>
       <c r="J53" s="11"/>
     </row>
-    <row r="54" spans="1:25" ht="14.25" customHeight="1">
+    <row r="54" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>436</v>
       </c>
@@ -6626,7 +6717,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="14.25" customHeight="1">
+    <row r="55" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>438</v>
       </c>
@@ -6656,7 +6747,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="14.25" customHeight="1">
+    <row r="56" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>408</v>
       </c>
@@ -6681,7 +6772,7 @@
       </c>
       <c r="J56" s="11"/>
     </row>
-    <row r="57" spans="1:25" ht="14.25" customHeight="1">
+    <row r="57" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>408</v>
       </c>
@@ -6706,7 +6797,7 @@
       </c>
       <c r="J57" s="11"/>
     </row>
-    <row r="58" spans="1:25" ht="14.25" customHeight="1">
+    <row r="58" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>451</v>
       </c>
@@ -6733,7 +6824,7 @@
       </c>
       <c r="J58" s="11"/>
     </row>
-    <row r="59" spans="1:25" ht="14.25" customHeight="1">
+    <row r="59" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="31" t="s">
         <v>451</v>
       </c>
@@ -6766,7 +6857,7 @@
       </c>
       <c r="L59" s="11"/>
     </row>
-    <row r="60" spans="1:25" ht="14.25" customHeight="1">
+    <row r="60" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="31" t="s">
         <v>413</v>
       </c>
@@ -6790,7 +6881,7 @@
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
     </row>
-    <row r="61" spans="1:25" ht="14.25" customHeight="1">
+    <row r="61" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="31" t="s">
         <v>464</v>
       </c>
@@ -6817,7 +6908,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="14.25" customHeight="1">
+    <row r="62" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="31" t="s">
         <v>471</v>
       </c>
@@ -6841,7 +6932,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="14.25" customHeight="1">
+    <row r="63" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>474</v>
       </c>
@@ -6873,7 +6964,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="14.25" customHeight="1">
+    <row r="64" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="31" t="s">
         <v>478</v>
       </c>
@@ -6900,7 +6991,7 @@
       </c>
       <c r="J64" s="11"/>
     </row>
-    <row r="65" spans="1:25" ht="14.25" customHeight="1">
+    <row r="65" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="31" t="s">
         <v>478</v>
       </c>
@@ -6927,7 +7018,7 @@
       </c>
       <c r="J65" s="11"/>
     </row>
-    <row r="66" spans="1:25" ht="14.25" customHeight="1">
+    <row r="66" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="31" t="s">
         <v>481</v>
       </c>
@@ -6949,7 +7040,7 @@
       </c>
       <c r="J66" s="11"/>
     </row>
-    <row r="67" spans="1:25" ht="14.25" customHeight="1">
+    <row r="67" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>482</v>
       </c>
@@ -6978,7 +7069,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="14.25" customHeight="1">
+    <row r="68" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>488</v>
       </c>
@@ -7019,7 +7110,7 @@
       <c r="X68" s="11"/>
       <c r="Y68" s="11"/>
     </row>
-    <row r="69" spans="1:25" ht="14.25" customHeight="1">
+    <row r="69" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="56" t="s">
         <v>495</v>
       </c>
@@ -7060,7 +7151,7 @@
       <c r="X69" s="11"/>
       <c r="Y69" s="11"/>
     </row>
-    <row r="70" spans="1:25" ht="14.25" customHeight="1">
+    <row r="70" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>502</v>
       </c>
@@ -7099,7 +7190,7 @@
       <c r="X70" s="11"/>
       <c r="Y70" s="11"/>
     </row>
-    <row r="71" spans="1:25" ht="14.25" customHeight="1">
+    <row r="71" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>503</v>
       </c>
@@ -7121,7 +7212,7 @@
       </c>
       <c r="J71" s="11"/>
     </row>
-    <row r="72" spans="1:25" ht="14.25" customHeight="1">
+    <row r="72" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="58" t="s">
         <v>505</v>
       </c>
@@ -7160,7 +7251,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="14.25" customHeight="1">
+    <row r="73" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>531</v>
       </c>
@@ -7185,7 +7276,7 @@
       </c>
       <c r="J73" s="11"/>
     </row>
-    <row r="74" spans="1:25" ht="14.25" customHeight="1">
+    <row r="74" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>535</v>
       </c>
@@ -7207,7 +7298,7 @@
       </c>
       <c r="J74" s="11"/>
     </row>
-    <row r="75" spans="1:25" ht="14.25" customHeight="1">
+    <row r="75" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>536</v>
       </c>
@@ -7233,7 +7324,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="14.25" customHeight="1">
+    <row r="76" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>536</v>
       </c>
@@ -7258,7 +7349,7 @@
       </c>
       <c r="J76" s="11"/>
     </row>
-    <row r="77" spans="1:25" ht="14.25" customHeight="1">
+    <row r="77" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>541</v>
       </c>
@@ -7280,7 +7371,7 @@
       </c>
       <c r="J77" s="11"/>
     </row>
-    <row r="78" spans="1:25" ht="14.25" customHeight="1">
+    <row r="78" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>542</v>
       </c>
@@ -7302,7 +7393,7 @@
       </c>
       <c r="J78" s="11"/>
     </row>
-    <row r="79" spans="1:25" ht="14.25" customHeight="1">
+    <row r="79" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>545</v>
       </c>
@@ -7321,7 +7412,7 @@
       </c>
       <c r="J79" s="11"/>
     </row>
-    <row r="80" spans="1:25" ht="14.25" customHeight="1">
+    <row r="80" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>547</v>
       </c>
@@ -7346,7 +7437,7 @@
       </c>
       <c r="J80" s="11"/>
     </row>
-    <row r="81" spans="1:10" ht="14.25" customHeight="1">
+    <row r="81" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>549</v>
       </c>
@@ -7369,7 +7460,7 @@
       </c>
       <c r="J81" s="11"/>
     </row>
-    <row r="82" spans="1:10" ht="14.25" customHeight="1">
+    <row r="82" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>551</v>
       </c>
@@ -7392,7 +7483,7 @@
       </c>
       <c r="J82" s="11"/>
     </row>
-    <row r="83" spans="1:10" ht="14.25" customHeight="1">
+    <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>553</v>
       </c>
@@ -7417,7 +7508,7 @@
       </c>
       <c r="J83" s="11"/>
     </row>
-    <row r="84" spans="1:10" ht="14.25" customHeight="1">
+    <row r="84" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
         <v>555</v>
       </c>
@@ -7443,7 +7534,7 @@
       </c>
       <c r="J84" s="11"/>
     </row>
-    <row r="85" spans="1:10" ht="14.25" customHeight="1">
+    <row r="85" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>557</v>
       </c>
@@ -7470,7 +7561,7 @@
       </c>
       <c r="J85" s="11"/>
     </row>
-    <row r="86" spans="1:10" ht="14.25" customHeight="1">
+    <row r="86" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>560</v>
       </c>
@@ -7494,7 +7585,7 @@
       </c>
       <c r="J86" s="11"/>
     </row>
-    <row r="87" spans="1:10" ht="14.25" customHeight="1">
+    <row r="87" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="66" t="s">
         <v>505</v>
       </c>
@@ -7516,7 +7607,7 @@
       </c>
       <c r="J87" s="11"/>
     </row>
-    <row r="88" spans="1:10" ht="14.5">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="51" t="s">
         <v>562</v>
       </c>
@@ -7536,7 +7627,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="14.5">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="51" t="s">
         <v>564</v>
       </c>
@@ -7559,7 +7650,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="14.5">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="67" t="s">
         <v>366</v>
       </c>

--- a/PocketNurseTest/SampleRequest3.xlsx
+++ b/PocketNurseTest/SampleRequest3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccaannburton/Projects/PocketNurse/PocketNurseTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccaannburton/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7AE323C3-787C-6F4F-8405-65EF70D29EEC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7A5E2BBB-1E1C-4444-87C8-D91054F90460}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="575">
   <si>
     <t>Patient First Name</t>
   </si>
@@ -1726,31 +1726,34 @@
     <t>units/kg</t>
   </si>
   <si>
-    <t>Session</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
     <t>Wisconsin</t>
   </si>
   <si>
-    <t>Madison</t>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Site ID</t>
+  </si>
+  <si>
+    <t>SVR</t>
+  </si>
+  <si>
+    <t>Console</t>
+  </si>
+  <si>
+    <t>Omni ID</t>
+  </si>
+  <si>
+    <t>Omnicell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
-  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1935,7 +1938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2052,7 +2055,12 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2336,47 +2344,46 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="74" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="68" t="s">
+        <v>568</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="70" t="s">
+        <v>571</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>572</v>
+      </c>
+      <c r="C2" s="69" t="s">
         <v>567</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>568</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>569</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="69">
-        <v>1</v>
-      </c>
-      <c r="B2" s="70">
-        <v>43221.458333333336</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>571</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>572</v>
+      <c r="D2" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
+      <c r="B3" s="73"/>
       <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
